--- a/Lab4/Målinger.xlsx
+++ b/Lab4/Målinger.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Documents\TTT4280\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A325DDDE-CDFC-4ECB-8C20-96633F41FA69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6B92E7-DB2C-4DFE-8DF5-3703AB4C9A50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E8184A06-1BCF-47BB-84E9-4F54472D8B96}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Måling</t>
   </si>
@@ -39,21 +39,6 @@
     <t>Ekstern puls</t>
   </si>
   <si>
-    <t>kt1</t>
-  </si>
-  <si>
-    <t>kt2</t>
-  </si>
-  <si>
-    <t>kt3</t>
-  </si>
-  <si>
-    <t>kt4</t>
-  </si>
-  <si>
-    <t>kt5</t>
-  </si>
-  <si>
     <t>mt1</t>
   </si>
   <si>
@@ -69,21 +54,6 @@
     <t>mt5</t>
   </si>
   <si>
-    <t>kr1</t>
-  </si>
-  <si>
-    <t>kr2</t>
-  </si>
-  <si>
-    <t>kr3</t>
-  </si>
-  <si>
-    <t>kr4</t>
-  </si>
-  <si>
-    <t>kr5</t>
-  </si>
-  <si>
     <t>mr1</t>
   </si>
   <si>
@@ -100,13 +70,58 @@
   </si>
   <si>
     <t>Målt puls R</t>
+  </si>
+  <si>
+    <t>Målt puls G</t>
+  </si>
+  <si>
+    <t>Målt puls B</t>
+  </si>
+  <si>
+    <t>SNR</t>
+  </si>
+  <si>
+    <t>mrob1</t>
+  </si>
+  <si>
+    <t>Avstand på ca 1 m</t>
+  </si>
+  <si>
+    <t>mrob2</t>
+  </si>
+  <si>
+    <t>Kald finger</t>
+  </si>
+  <si>
+    <t>mrob3</t>
+  </si>
+  <si>
+    <t>Ekstra varm finger</t>
+  </si>
+  <si>
+    <t>mrob4</t>
+  </si>
+  <si>
+    <t>Høy puls</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Std. Avvik</t>
+  </si>
+  <si>
+    <t>Snitt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,16 +129,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -131,13 +166,368 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,153 +842,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2001C034-56E2-41FE-8C83-E71705B8CF39}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3">
+        <v>66.3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>66.3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>62.8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1">
+        <v>64.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>64.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>64.2</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="26">
+        <v>61</v>
+      </c>
+      <c r="C6" s="27">
+        <v>61.2</v>
+      </c>
+      <c r="D6" s="27">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="E6" s="27">
+        <v>82.8</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="23">
+        <f>AVERAGE(B2:B6)</f>
+        <v>63.4</v>
+      </c>
+      <c r="C7" s="24">
+        <f t="shared" ref="C7:E7" si="0">AVERAGE(C2:C6)</f>
+        <v>63.219999999999992</v>
+      </c>
+      <c r="D7" s="24">
+        <f t="shared" si="0"/>
+        <v>65.859999999999985</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" si="0"/>
+        <v>71.06</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="9">
+        <f>STDEVA(B2:B6)</f>
+        <v>2.8809720581775866</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:E8" si="1">STDEVA(C2:C6)</f>
+        <v>2.0486580973896045</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8962230341355957</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0198669613248832</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1">
+        <v>110.1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="D11" s="1">
+        <v>63.8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>66.3</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1">
+        <v>66.7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="E12" s="1">
+        <v>67</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="D13" s="1">
+        <v>64.2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>82.8</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="26">
+        <v>70</v>
+      </c>
+      <c r="C14" s="27">
+        <v>63.8</v>
+      </c>
+      <c r="D14" s="27">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="E14" s="27">
+        <v>68.2</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="7">
+        <f>AVERAGE(B10:B14)</f>
+        <v>69.2</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" ref="C15:E15" si="2">AVERAGE(C10:C14)</f>
+        <v>76.919999999999987</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="2"/>
+        <v>67.740000000000009</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="2"/>
+        <v>76.86</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="9">
+        <f>STDEVA(B10:B14)</f>
+        <v>5.1185935568278911</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:E16" si="3">STDEVA(C10:C14)</f>
+        <v>19.415380501035802</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="3"/>
+        <v>6.1211110102660307</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="3"/>
+        <v>14.615676515303679</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>110</v>
+      </c>
+      <c r="C18" s="1">
+        <v>102.6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>105.3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1">
+        <v>70.2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>71</v>
+      </c>
+      <c r="E19" s="1">
+        <v>68.2</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="8">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1">
+        <v>62.2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E20" s="1">
+        <v>63.8</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>91</v>
-      </c>
-      <c r="C6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B21" s="16">
+        <v>61</v>
+      </c>
+      <c r="C21" s="17">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="D21" s="17">
+        <v>75</v>
+      </c>
+      <c r="E21" s="17">
+        <v>83.3</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A17:G17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lab4/Målinger.xlsx
+++ b/Lab4/Målinger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Documents\TTT4280\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6B92E7-DB2C-4DFE-8DF5-3703AB4C9A50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F1A9C8-C3A2-4665-AB2F-4741EDC5FD4B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E8184A06-1BCF-47BB-84E9-4F54472D8B96}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Måling</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Målt puls B</t>
   </si>
   <si>
-    <t>SNR</t>
-  </si>
-  <si>
     <t>mrob1</t>
   </si>
   <si>
@@ -112,6 +109,15 @@
   </si>
   <si>
     <t>Snitt</t>
+  </si>
+  <si>
+    <t>SNR R</t>
+  </si>
+  <si>
+    <t>SNR G</t>
+  </si>
+  <si>
+    <t>SNR B</t>
   </si>
 </sst>
 </file>
@@ -119,7 +125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -494,14 +500,14 @@
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -511,6 +517,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,14 +534,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,19 +848,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2001C034-56E2-41FE-8C83-E71705B8CF39}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" customWidth="1"/>
+    <col min="6" max="7" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -871,13 +878,19 @@
         <v>14</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -894,9 +907,11 @@
         <v>67.400000000000006</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -913,9 +928,11 @@
         <v>78.400000000000006</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -932,9 +949,11 @@
         <v>62.5</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -950,54 +969,66 @@
       <c r="E5" s="1">
         <v>64.2</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25" t="s">
+      <c r="F5" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="23">
         <v>61</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="24">
         <v>61.2</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="24">
         <v>74.099999999999994</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="24">
         <v>82.8</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="23">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="20">
         <f>AVERAGE(B2:B6)</f>
         <v>63.4</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="21">
         <f t="shared" ref="C7:E7" si="0">AVERAGE(C2:C6)</f>
         <v>63.219999999999992</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <f t="shared" si="0"/>
         <v>65.859999999999985</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <f t="shared" si="0"/>
         <v>71.06</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="9">
         <f>STDEVA(B2:B6)</f>
@@ -1015,19 +1046,23 @@
         <f t="shared" si="1"/>
         <v>9.0198669613248832</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
@@ -1044,9 +1079,11 @@
         <v>100</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -1063,9 +1100,11 @@
         <v>66.3</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
@@ -1081,10 +1120,18 @@
       <c r="E12" s="1">
         <v>67</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F12" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
@@ -1101,30 +1148,34 @@
         <v>82.8</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29" t="s">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="23">
         <v>70</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="24">
         <v>63.8</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="24">
         <v>64.900000000000006</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="24">
         <v>68.2</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
-        <v>26</v>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="B15" s="7">
         <f>AVERAGE(B10:B14)</f>
@@ -1143,11 +1194,13 @@
         <v>76.86</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="9">
         <f>STDEVA(B10:B14)</f>
@@ -1165,21 +1218,25 @@
         <f t="shared" si="3"/>
         <v>14.615676515303679</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="8">
         <v>110</v>
@@ -1194,13 +1251,15 @@
         <v>65.599999999999994</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8">
         <v>64</v>
@@ -1215,13 +1274,15 @@
         <v>68.2</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="B20" s="8">
         <v>67</v>
@@ -1236,13 +1297,15 @@
         <v>63.8</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="13" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="B21" s="16">
         <v>61</v>
@@ -1257,14 +1320,16 @@
         <v>83.3</v>
       </c>
       <c r="F21" s="17"/>
-      <c r="G21" s="18" t="s">
-        <v>17</v>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
